--- a/src/main/resources/templates/mock_test_template.xlsx
+++ b/src/main/resources/templates/mock_test_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3180" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Type</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>WRITING</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>WRITING_SUMMARIZE_WRITTEN_TEXT</t>
+  </si>
+  <si>
+    <t>SPEAKING_READ_ALOUD</t>
+  </si>
+  <si>
+    <t>SPEAKING_REPEAT_SENTENCE</t>
   </si>
 </sst>
 </file>
@@ -429,14 +441,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,6 +508,9 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -502,7 +518,10 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
         <v>1065</v>
       </c>
     </row>
@@ -510,7 +529,10 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
         <v>1068</v>
       </c>
     </row>
@@ -518,7 +540,10 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
         <v>63809</v>
       </c>
     </row>
@@ -526,7 +551,10 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
         <v>63510</v>
       </c>
     </row>
@@ -534,105 +562,132 @@
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
         <v>23359</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/src/main/resources/templates/mock_test_template.xlsx
+++ b/src/main/resources/templates/mock_test_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1470" yWindow="0" windowWidth="19020" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,20 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="36">
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>MOCK_TEST_A</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Mini mock test A</t>
-  </si>
-  <si>
     <t>Limit Exam SILVER</t>
   </si>
   <si>
@@ -65,6 +59,69 @@
   </si>
   <si>
     <t>SPEAKING_REPEAT_SENTENCE</t>
+  </si>
+  <si>
+    <t>SPEAKING_DESCRIBE_IMAGE</t>
+  </si>
+  <si>
+    <t>SPEAKING_RETELL_LECTURE</t>
+  </si>
+  <si>
+    <t>SPEAKING_ANSWER_SHORT_QUESTION</t>
+  </si>
+  <si>
+    <t>WRITING_ESSAY</t>
+  </si>
+  <si>
+    <t>READING_FIB_R_W</t>
+  </si>
+  <si>
+    <t>READING</t>
+  </si>
+  <si>
+    <t>READING_FIB_R</t>
+  </si>
+  <si>
+    <t>READING_RE_ORDER_PARAGRAPH</t>
+  </si>
+  <si>
+    <t>READING_MCQ_R_MULTIPLE_ANSWER</t>
+  </si>
+  <si>
+    <t>READING_MCQ_R_SINGLE_ANSWER</t>
+  </si>
+  <si>
+    <t>LISTENING_SUMMARIZE_SPOKEN_TEXT</t>
+  </si>
+  <si>
+    <t>LISTENING</t>
+  </si>
+  <si>
+    <t>LISTENING_FIB_L</t>
+  </si>
+  <si>
+    <t>LISTENING_MCQ_L_SINGLE_ANSWER</t>
+  </si>
+  <si>
+    <t>LISTENING_MCQ_L_MULTIPLE_ANSWER</t>
+  </si>
+  <si>
+    <t>LISTENING_HIGHLIGHT_CORRECT_SUMMARY</t>
+  </si>
+  <si>
+    <t>LISTENING_SELECT_MISSING_WORD</t>
+  </si>
+  <si>
+    <t>LISTENING_HIGHLIGHT_INCORRECT_WORD</t>
+  </si>
+  <si>
+    <t>LISTENING_DICTATION</t>
+  </si>
+  <si>
+    <t>MOCK_TEST_FULL</t>
+  </si>
+  <si>
+    <t>Mock full three</t>
   </si>
 </sst>
 </file>
@@ -88,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +158,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,16 +188,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,31 +560,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -489,7 +592,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -497,7 +600,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
@@ -505,196 +608,738 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1065</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1068</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>63809</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>63510</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>23359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="7"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>"MOCK_TEST_A, MOCK_TEST_B, MOCK_TEST_FULL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A43">
       <formula1>"SPEAKING, WRITING, READING, LISTENING"</formula1>
     </dataValidation>
   </dataValidations>
